--- a/dudao_template.xlsx
+++ b/dudao_template.xlsx
@@ -1,55 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\WeChat Files\monkey-king\FileStorage\File\2021-05\督导打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspace\python\mytools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E1DF4C-AAFE-4CE5-A478-B84306B3AAAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="督导打分表" sheetId="1" r:id="rId1"/>
-    <sheet name="督导管户资料" sheetId="2" r:id="rId2"/>
+    <sheet name="总结" sheetId="3" r:id="rId2"/>
+    <sheet name="督导管户资料" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
-  <si>
-    <t>附件1</t>
-  </si>
-  <si>
-    <t>2021年2季度督导打分表</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="40"/>
-        <rFont val="方正大标宋简体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被督导单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="方正大标宋简体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：XX农商银行</t>
-    </r>
-  </si>
-  <si>
-    <t>督导人：</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -67,15 +39,6 @@
   </si>
   <si>
     <t>扣分标准</t>
-  </si>
-  <si>
-    <t>扣分原因</t>
-  </si>
-  <si>
-    <t>得分</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>网点硬转型
@@ -166,6 +129,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>查看网点存量客户数据</t>
@@ -175,6 +139,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，根据该行制定分岗管户方案，对照现场导出客户数据进行电话沟通、回访。
@@ -245,6 +210,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分）</t>
@@ -265,11 +231,40 @@
   <si>
     <t>电话号码</t>
   </si>
+  <si>
+    <t>客户分层分类与分岗管户工作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点硬转型收尾进展情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动上门营销情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理型网点建设情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是否制定总行2021年工作方案
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点是否建有客户台账（或系统台账）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -280,12 +275,14 @@
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -297,18 +294,14 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="40"/>
-      <name val="方正大标宋简体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -316,17 +309,25 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="方正大标宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -365,15 +366,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,21 +403,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,6 +417,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +717,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -727,372 +731,338 @@
     <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="72" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="42" customHeight="1">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="42" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="89.1" customHeight="1">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="81.95" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="93.6" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="53.1" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="69.95" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="96.95" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5">
         <v>16</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="42" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="69.95" customHeight="1">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="73.5" customHeight="1">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="47.45" customHeight="1">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="42" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="89.1" customHeight="1">
-      <c r="A8" s="22">
-        <v>2</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="81.95" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="93.6" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="53.1" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="8" t="s">
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="48.6" customHeight="1">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6">
-        <v>10</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="96.95" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="73.5" customHeight="1">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="6">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="47.45" customHeight="1">
-      <c r="A16" s="6">
-        <v>5</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A17" s="6">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12">
-        <f>SUM(H5:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B13"/>
+  <mergeCells count="5">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -1100,6 +1070,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="39.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="24" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1116,32 +1189,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25">
-      <c r="A2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>

--- a/dudao_template.xlsx
+++ b/dudao_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspace\python\mytools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\sdrcu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37763779-D4CF-486B-B358-1BECBE25A668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="督导打分表" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>项目</t>
   </si>
@@ -32,17 +30,7 @@
     <t>要点</t>
   </si>
   <si>
-    <t>检查方法</t>
-  </si>
-  <si>
-    <t>分值</t>
-  </si>
-  <si>
     <t>扣分标准</t>
-  </si>
-  <si>
-    <t>网点硬转型
-收尾进展情况</t>
   </si>
   <si>
     <t>营业老旧网点安全隐患整改</t>
@@ -233,39 +221,68 @@
   </si>
   <si>
     <t>客户分层分类与分岗管户工作</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>网点硬转型收尾进展情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>移动上门营销情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>代理型网点建设情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">是否制定总行2021年工作方案
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>网点是否建有客户台账（或系统台账）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>要点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点硬转型
+收尾进展情况</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业老旧网点安全隐患整改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -283,11 +300,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="方正大标宋简体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -319,12 +331,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="方正大标宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -339,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -362,20 +368,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,13 +427,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -403,6 +443,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,34 +459,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,17 +747,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -736,333 +770,311 @@
     <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+    <row r="1" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="72" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="42" customHeight="1">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="42" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="89.1" customHeight="1">
-      <c r="A6" s="16">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="96.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4">
         <v>16</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="81.95" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="93.6" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="53.1" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="96.95" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
       <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="69.95" customHeight="1">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="73.5" customHeight="1">
-      <c r="A13" s="5">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="47.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="47.45" customHeight="1">
-      <c r="A14" s="5">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="48.6" customHeight="1">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B11"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -1070,14 +1082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
@@ -1085,81 +1097,81 @@
     <col min="14" max="14" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="10" t="s">
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="24" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1167,54 +1179,54 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25">
-      <c r="A2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
